--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_144.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_144.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32276-d76708-Reviews-Courtyard_Cypress_Anaheim_Orange_County-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>463</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-By-Marriott-Cypress.h8347.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_144.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_144.xlsx
@@ -7734,7 +7734,7 @@
         <v>26588</v>
       </c>
       <c r="B3" t="n">
-        <v>132083</v>
+        <v>162872</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -7799,7 +7799,7 @@
         <v>26588</v>
       </c>
       <c r="B4" t="n">
-        <v>132084</v>
+        <v>162873</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -7864,7 +7864,7 @@
         <v>26588</v>
       </c>
       <c r="B5" t="n">
-        <v>132085</v>
+        <v>162874</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -7935,7 +7935,7 @@
         <v>26588</v>
       </c>
       <c r="B6" t="n">
-        <v>132086</v>
+        <v>162875</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -8000,7 +8000,7 @@
         <v>26588</v>
       </c>
       <c r="B7" t="n">
-        <v>132087</v>
+        <v>162876</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -8065,7 +8065,7 @@
         <v>26588</v>
       </c>
       <c r="B8" t="n">
-        <v>132088</v>
+        <v>132091</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
@@ -8130,7 +8130,7 @@
         <v>26588</v>
       </c>
       <c r="B9" t="n">
-        <v>132089</v>
+        <v>162877</v>
       </c>
       <c r="C9" t="s">
         <v>113</v>
@@ -8199,7 +8199,7 @@
         <v>26588</v>
       </c>
       <c r="B10" t="n">
-        <v>132090</v>
+        <v>162878</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -8270,7 +8270,7 @@
         <v>26588</v>
       </c>
       <c r="B11" t="n">
-        <v>132091</v>
+        <v>162879</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -8341,7 +8341,7 @@
         <v>26588</v>
       </c>
       <c r="B12" t="n">
-        <v>132092</v>
+        <v>162880</v>
       </c>
       <c r="C12" t="s">
         <v>140</v>
@@ -8406,7 +8406,7 @@
         <v>26588</v>
       </c>
       <c r="B13" t="n">
-        <v>132093</v>
+        <v>162881</v>
       </c>
       <c r="C13" t="s">
         <v>149</v>
@@ -8471,7 +8471,7 @@
         <v>26588</v>
       </c>
       <c r="B14" t="n">
-        <v>132094</v>
+        <v>162882</v>
       </c>
       <c r="C14" t="s">
         <v>158</v>
@@ -8536,7 +8536,7 @@
         <v>26588</v>
       </c>
       <c r="B15" t="n">
-        <v>132095</v>
+        <v>162883</v>
       </c>
       <c r="C15" t="s">
         <v>168</v>
@@ -8607,7 +8607,7 @@
         <v>26588</v>
       </c>
       <c r="B16" t="n">
-        <v>132096</v>
+        <v>162884</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
@@ -8676,7 +8676,7 @@
         <v>26588</v>
       </c>
       <c r="B17" t="n">
-        <v>132097</v>
+        <v>162885</v>
       </c>
       <c r="C17" t="s">
         <v>187</v>
@@ -8737,7 +8737,7 @@
         <v>26588</v>
       </c>
       <c r="B18" t="n">
-        <v>132098</v>
+        <v>162886</v>
       </c>
       <c r="C18" t="s">
         <v>196</v>
@@ -8802,7 +8802,7 @@
         <v>26588</v>
       </c>
       <c r="B19" t="n">
-        <v>132099</v>
+        <v>162887</v>
       </c>
       <c r="C19" t="s">
         <v>207</v>
@@ -9009,7 +9009,7 @@
         <v>26588</v>
       </c>
       <c r="B22" t="n">
-        <v>132100</v>
+        <v>162888</v>
       </c>
       <c r="C22" t="s">
         <v>230</v>
@@ -9149,7 +9149,7 @@
         <v>26588</v>
       </c>
       <c r="B24" t="n">
-        <v>132101</v>
+        <v>162889</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -9214,7 +9214,7 @@
         <v>26588</v>
       </c>
       <c r="B25" t="n">
-        <v>132102</v>
+        <v>162890</v>
       </c>
       <c r="C25" t="s">
         <v>257</v>
@@ -9421,7 +9421,7 @@
         <v>26588</v>
       </c>
       <c r="B28" t="n">
-        <v>132103</v>
+        <v>162891</v>
       </c>
       <c r="C28" t="s">
         <v>281</v>
@@ -9490,7 +9490,7 @@
         <v>26588</v>
       </c>
       <c r="B29" t="n">
-        <v>132104</v>
+        <v>162892</v>
       </c>
       <c r="C29" t="s">
         <v>288</v>
@@ -9620,7 +9620,7 @@
         <v>26588</v>
       </c>
       <c r="B31" t="n">
-        <v>132105</v>
+        <v>162893</v>
       </c>
       <c r="C31" t="s">
         <v>306</v>
@@ -9689,7 +9689,7 @@
         <v>26588</v>
       </c>
       <c r="B32" t="n">
-        <v>132106</v>
+        <v>162894</v>
       </c>
       <c r="C32" t="s">
         <v>315</v>
@@ -9758,7 +9758,7 @@
         <v>26588</v>
       </c>
       <c r="B33" t="n">
-        <v>132107</v>
+        <v>162895</v>
       </c>
       <c r="C33" t="s">
         <v>322</v>
@@ -9829,7 +9829,7 @@
         <v>26588</v>
       </c>
       <c r="B34" t="n">
-        <v>132108</v>
+        <v>162896</v>
       </c>
       <c r="C34" t="s">
         <v>331</v>
@@ -9898,7 +9898,7 @@
         <v>26588</v>
       </c>
       <c r="B35" t="n">
-        <v>132109</v>
+        <v>162897</v>
       </c>
       <c r="C35" t="s">
         <v>339</v>
@@ -9969,7 +9969,7 @@
         <v>26588</v>
       </c>
       <c r="B36" t="n">
-        <v>132110</v>
+        <v>162898</v>
       </c>
       <c r="C36" t="s">
         <v>348</v>
@@ -10034,7 +10034,7 @@
         <v>26588</v>
       </c>
       <c r="B37" t="n">
-        <v>132111</v>
+        <v>162899</v>
       </c>
       <c r="C37" t="s">
         <v>354</v>
@@ -10099,7 +10099,7 @@
         <v>26588</v>
       </c>
       <c r="B38" t="n">
-        <v>132112</v>
+        <v>162900</v>
       </c>
       <c r="C38" t="s">
         <v>364</v>
@@ -10164,7 +10164,7 @@
         <v>26588</v>
       </c>
       <c r="B39" t="n">
-        <v>132113</v>
+        <v>162901</v>
       </c>
       <c r="C39" t="s">
         <v>374</v>
@@ -10229,7 +10229,7 @@
         <v>26588</v>
       </c>
       <c r="B40" t="n">
-        <v>132114</v>
+        <v>162902</v>
       </c>
       <c r="C40" t="s">
         <v>381</v>
@@ -10298,7 +10298,7 @@
         <v>26588</v>
       </c>
       <c r="B41" t="n">
-        <v>132115</v>
+        <v>162903</v>
       </c>
       <c r="C41" t="s">
         <v>391</v>
@@ -10432,7 +10432,7 @@
         <v>26588</v>
       </c>
       <c r="B43" t="n">
-        <v>132116</v>
+        <v>162904</v>
       </c>
       <c r="C43" t="s">
         <v>409</v>
@@ -10503,7 +10503,7 @@
         <v>26588</v>
       </c>
       <c r="B44" t="n">
-        <v>132117</v>
+        <v>162905</v>
       </c>
       <c r="C44" t="s">
         <v>416</v>
@@ -10574,7 +10574,7 @@
         <v>26588</v>
       </c>
       <c r="B45" t="n">
-        <v>132118</v>
+        <v>162906</v>
       </c>
       <c r="C45" t="s">
         <v>425</v>
@@ -10710,7 +10710,7 @@
         <v>26588</v>
       </c>
       <c r="B47" t="n">
-        <v>132119</v>
+        <v>162907</v>
       </c>
       <c r="C47" t="s">
         <v>441</v>
@@ -10779,7 +10779,7 @@
         <v>26588</v>
       </c>
       <c r="B48" t="n">
-        <v>132087</v>
+        <v>132091</v>
       </c>
       <c r="C48" t="s">
         <v>104</v>
@@ -10913,7 +10913,7 @@
         <v>26588</v>
       </c>
       <c r="B50" t="n">
-        <v>132120</v>
+        <v>162908</v>
       </c>
       <c r="C50" t="s">
         <v>465</v>
@@ -11049,7 +11049,7 @@
         <v>26588</v>
       </c>
       <c r="B52" t="n">
-        <v>132121</v>
+        <v>162909</v>
       </c>
       <c r="C52" t="s">
         <v>481</v>
@@ -11114,7 +11114,7 @@
         <v>26588</v>
       </c>
       <c r="B53" t="n">
-        <v>132122</v>
+        <v>162910</v>
       </c>
       <c r="C53" t="s">
         <v>490</v>
@@ -11185,7 +11185,7 @@
         <v>26588</v>
       </c>
       <c r="B54" t="n">
-        <v>132123</v>
+        <v>162911</v>
       </c>
       <c r="C54" t="s">
         <v>500</v>
@@ -11325,7 +11325,7 @@
         <v>26588</v>
       </c>
       <c r="B56" t="n">
-        <v>132124</v>
+        <v>162912</v>
       </c>
       <c r="C56" t="s">
         <v>516</v>
@@ -11394,7 +11394,7 @@
         <v>26588</v>
       </c>
       <c r="B57" t="n">
-        <v>132125</v>
+        <v>162913</v>
       </c>
       <c r="C57" t="s">
         <v>525</v>
@@ -11459,7 +11459,7 @@
         <v>26588</v>
       </c>
       <c r="B58" t="n">
-        <v>132126</v>
+        <v>162914</v>
       </c>
       <c r="C58" t="s">
         <v>535</v>
@@ -11528,7 +11528,7 @@
         <v>26588</v>
       </c>
       <c r="B59" t="n">
-        <v>132127</v>
+        <v>162915</v>
       </c>
       <c r="C59" t="s">
         <v>541</v>
@@ -11727,7 +11727,7 @@
         <v>26588</v>
       </c>
       <c r="B62" t="n">
-        <v>132128</v>
+        <v>162916</v>
       </c>
       <c r="C62" t="s">
         <v>569</v>
@@ -11798,7 +11798,7 @@
         <v>26588</v>
       </c>
       <c r="B63" t="n">
-        <v>132129</v>
+        <v>162917</v>
       </c>
       <c r="C63" t="s">
         <v>578</v>
@@ -11863,7 +11863,7 @@
         <v>26588</v>
       </c>
       <c r="B64" t="n">
-        <v>132130</v>
+        <v>162918</v>
       </c>
       <c r="C64" t="s">
         <v>587</v>
@@ -11997,7 +11997,7 @@
         <v>26588</v>
       </c>
       <c r="B66" t="n">
-        <v>132131</v>
+        <v>162919</v>
       </c>
       <c r="C66" t="s">
         <v>601</v>
@@ -12139,7 +12139,7 @@
         <v>26588</v>
       </c>
       <c r="B68" t="n">
-        <v>132132</v>
+        <v>162920</v>
       </c>
       <c r="C68" t="s">
         <v>617</v>
@@ -12279,7 +12279,7 @@
         <v>26588</v>
       </c>
       <c r="B70" t="n">
-        <v>132133</v>
+        <v>162921</v>
       </c>
       <c r="C70" t="s">
         <v>635</v>
@@ -12344,7 +12344,7 @@
         <v>26588</v>
       </c>
       <c r="B71" t="n">
-        <v>132134</v>
+        <v>162922</v>
       </c>
       <c r="C71" t="s">
         <v>644</v>
@@ -12415,7 +12415,7 @@
         <v>26588</v>
       </c>
       <c r="B72" t="n">
-        <v>132135</v>
+        <v>162923</v>
       </c>
       <c r="C72" t="s">
         <v>654</v>
@@ -12480,7 +12480,7 @@
         <v>26588</v>
       </c>
       <c r="B73" t="n">
-        <v>132136</v>
+        <v>162924</v>
       </c>
       <c r="C73" t="s">
         <v>664</v>
@@ -12551,7 +12551,7 @@
         <v>26588</v>
       </c>
       <c r="B74" t="n">
-        <v>132137</v>
+        <v>162925</v>
       </c>
       <c r="C74" t="s">
         <v>671</v>
@@ -12685,7 +12685,7 @@
         <v>26588</v>
       </c>
       <c r="B76" t="n">
-        <v>132138</v>
+        <v>162926</v>
       </c>
       <c r="C76" t="s">
         <v>690</v>
@@ -12756,7 +12756,7 @@
         <v>26588</v>
       </c>
       <c r="B77" t="n">
-        <v>132139</v>
+        <v>162927</v>
       </c>
       <c r="C77" t="s">
         <v>699</v>
@@ -12821,7 +12821,7 @@
         <v>26588</v>
       </c>
       <c r="B78" t="n">
-        <v>132140</v>
+        <v>162928</v>
       </c>
       <c r="C78" t="s">
         <v>708</v>
@@ -12890,7 +12890,7 @@
         <v>26588</v>
       </c>
       <c r="B79" t="n">
-        <v>132141</v>
+        <v>162929</v>
       </c>
       <c r="C79" t="s">
         <v>717</v>
@@ -12959,7 +12959,7 @@
         <v>26588</v>
       </c>
       <c r="B80" t="n">
-        <v>132142</v>
+        <v>162930</v>
       </c>
       <c r="C80" t="s">
         <v>726</v>
@@ -13030,7 +13030,7 @@
         <v>26588</v>
       </c>
       <c r="B81" t="n">
-        <v>132143</v>
+        <v>162931</v>
       </c>
       <c r="C81" t="s">
         <v>735</v>
@@ -13095,7 +13095,7 @@
         <v>26588</v>
       </c>
       <c r="B82" t="n">
-        <v>132144</v>
+        <v>162932</v>
       </c>
       <c r="C82" t="s">
         <v>745</v>
@@ -13160,7 +13160,7 @@
         <v>26588</v>
       </c>
       <c r="B83" t="n">
-        <v>132145</v>
+        <v>162933</v>
       </c>
       <c r="C83" t="s">
         <v>754</v>
@@ -13225,7 +13225,7 @@
         <v>26588</v>
       </c>
       <c r="B84" t="n">
-        <v>132146</v>
+        <v>162934</v>
       </c>
       <c r="C84" t="s">
         <v>764</v>
@@ -13296,7 +13296,7 @@
         <v>26588</v>
       </c>
       <c r="B85" t="n">
-        <v>132147</v>
+        <v>162935</v>
       </c>
       <c r="C85" t="s">
         <v>773</v>
@@ -13361,7 +13361,7 @@
         <v>26588</v>
       </c>
       <c r="B86" t="n">
-        <v>132148</v>
+        <v>162936</v>
       </c>
       <c r="C86" t="s">
         <v>780</v>
@@ -13432,7 +13432,7 @@
         <v>26588</v>
       </c>
       <c r="B87" t="n">
-        <v>132149</v>
+        <v>162937</v>
       </c>
       <c r="C87" t="s">
         <v>790</v>
@@ -13501,7 +13501,7 @@
         <v>26588</v>
       </c>
       <c r="B88" t="n">
-        <v>132150</v>
+        <v>162938</v>
       </c>
       <c r="C88" t="s">
         <v>799</v>
@@ -13633,7 +13633,7 @@
         <v>26588</v>
       </c>
       <c r="B90" t="n">
-        <v>132151</v>
+        <v>162939</v>
       </c>
       <c r="C90" t="s">
         <v>817</v>
@@ -13704,7 +13704,7 @@
         <v>26588</v>
       </c>
       <c r="B91" t="n">
-        <v>132152</v>
+        <v>162940</v>
       </c>
       <c r="C91" t="s">
         <v>825</v>
@@ -13769,7 +13769,7 @@
         <v>26588</v>
       </c>
       <c r="B92" t="n">
-        <v>132153</v>
+        <v>162941</v>
       </c>
       <c r="C92" t="s">
         <v>833</v>
@@ -13840,7 +13840,7 @@
         <v>26588</v>
       </c>
       <c r="B93" t="n">
-        <v>132154</v>
+        <v>162942</v>
       </c>
       <c r="C93" t="s">
         <v>842</v>
@@ -13905,7 +13905,7 @@
         <v>26588</v>
       </c>
       <c r="B94" t="n">
-        <v>132155</v>
+        <v>162943</v>
       </c>
       <c r="C94" t="s">
         <v>849</v>
@@ -13976,7 +13976,7 @@
         <v>26588</v>
       </c>
       <c r="B95" t="n">
-        <v>132156</v>
+        <v>162944</v>
       </c>
       <c r="C95" t="s">
         <v>858</v>
@@ -14047,7 +14047,7 @@
         <v>26588</v>
       </c>
       <c r="B96" t="n">
-        <v>132157</v>
+        <v>162945</v>
       </c>
       <c r="C96" t="s">
         <v>867</v>
@@ -14118,7 +14118,7 @@
         <v>26588</v>
       </c>
       <c r="B97" t="n">
-        <v>132158</v>
+        <v>162946</v>
       </c>
       <c r="C97" t="s">
         <v>876</v>
@@ -14189,7 +14189,7 @@
         <v>26588</v>
       </c>
       <c r="B98" t="n">
-        <v>132159</v>
+        <v>162947</v>
       </c>
       <c r="C98" t="s">
         <v>882</v>
@@ -14390,7 +14390,7 @@
         <v>26588</v>
       </c>
       <c r="B101" t="n">
-        <v>132160</v>
+        <v>162948</v>
       </c>
       <c r="C101" t="s">
         <v>906</v>
@@ -14461,7 +14461,7 @@
         <v>26588</v>
       </c>
       <c r="B102" t="n">
-        <v>132161</v>
+        <v>162949</v>
       </c>
       <c r="C102" t="s">
         <v>915</v>
@@ -14530,7 +14530,7 @@
         <v>26588</v>
       </c>
       <c r="B103" t="n">
-        <v>132087</v>
+        <v>132091</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
@@ -14595,7 +14595,7 @@
         <v>26588</v>
       </c>
       <c r="B104" t="n">
-        <v>132162</v>
+        <v>162950</v>
       </c>
       <c r="C104" t="s">
         <v>929</v>
@@ -14666,7 +14666,7 @@
         <v>26588</v>
       </c>
       <c r="B105" t="n">
-        <v>132163</v>
+        <v>162951</v>
       </c>
       <c r="C105" t="s">
         <v>938</v>
@@ -14800,7 +14800,7 @@
         <v>26588</v>
       </c>
       <c r="B107" t="n">
-        <v>132164</v>
+        <v>162952</v>
       </c>
       <c r="C107" t="s">
         <v>957</v>
@@ -14871,7 +14871,7 @@
         <v>26588</v>
       </c>
       <c r="B108" t="n">
-        <v>132165</v>
+        <v>162953</v>
       </c>
       <c r="C108" t="s">
         <v>966</v>
@@ -14942,7 +14942,7 @@
         <v>26588</v>
       </c>
       <c r="B109" t="n">
-        <v>132166</v>
+        <v>162954</v>
       </c>
       <c r="C109" t="s">
         <v>973</v>
@@ -15149,7 +15149,7 @@
         <v>26588</v>
       </c>
       <c r="B112" t="n">
-        <v>132167</v>
+        <v>162955</v>
       </c>
       <c r="C112" t="s">
         <v>997</v>
@@ -15218,7 +15218,7 @@
         <v>26588</v>
       </c>
       <c r="B113" t="n">
-        <v>132168</v>
+        <v>162956</v>
       </c>
       <c r="C113" t="s">
         <v>1005</v>
@@ -15287,7 +15287,7 @@
         <v>26588</v>
       </c>
       <c r="B114" t="n">
-        <v>132169</v>
+        <v>162957</v>
       </c>
       <c r="C114" t="s">
         <v>1014</v>
@@ -15352,7 +15352,7 @@
         <v>26588</v>
       </c>
       <c r="B115" t="n">
-        <v>132170</v>
+        <v>162958</v>
       </c>
       <c r="C115" t="s">
         <v>1024</v>
@@ -15423,7 +15423,7 @@
         <v>26588</v>
       </c>
       <c r="B116" t="n">
-        <v>132171</v>
+        <v>162959</v>
       </c>
       <c r="C116" t="s">
         <v>1033</v>
@@ -15557,7 +15557,7 @@
         <v>26588</v>
       </c>
       <c r="B118" t="n">
-        <v>132172</v>
+        <v>162960</v>
       </c>
       <c r="C118" t="s">
         <v>1050</v>
@@ -15622,7 +15622,7 @@
         <v>26588</v>
       </c>
       <c r="B119" t="n">
-        <v>132173</v>
+        <v>132130</v>
       </c>
       <c r="C119" t="s">
         <v>1059</v>
@@ -15693,7 +15693,7 @@
         <v>26588</v>
       </c>
       <c r="B120" t="n">
-        <v>132174</v>
+        <v>162961</v>
       </c>
       <c r="C120" t="s">
         <v>1068</v>
@@ -15967,7 +15967,7 @@
         <v>26588</v>
       </c>
       <c r="B124" t="n">
-        <v>132175</v>
+        <v>162962</v>
       </c>
       <c r="C124" t="s">
         <v>1099</v>
@@ -16036,7 +16036,7 @@
         <v>26588</v>
       </c>
       <c r="B125" t="n">
-        <v>132176</v>
+        <v>162963</v>
       </c>
       <c r="C125" t="s">
         <v>1109</v>
@@ -16107,7 +16107,7 @@
         <v>26588</v>
       </c>
       <c r="B126" t="n">
-        <v>132177</v>
+        <v>139524</v>
       </c>
       <c r="C126" t="s">
         <v>1118</v>
@@ -16176,7 +16176,7 @@
         <v>26588</v>
       </c>
       <c r="B127" t="n">
-        <v>132178</v>
+        <v>162964</v>
       </c>
       <c r="C127" t="s">
         <v>1128</v>
@@ -16377,7 +16377,7 @@
         <v>26588</v>
       </c>
       <c r="B130" t="n">
-        <v>132179</v>
+        <v>162965</v>
       </c>
       <c r="C130" t="s">
         <v>1157</v>
@@ -16517,7 +16517,7 @@
         <v>26588</v>
       </c>
       <c r="B132" t="n">
-        <v>132180</v>
+        <v>162966</v>
       </c>
       <c r="C132" t="s">
         <v>1176</v>
@@ -16588,7 +16588,7 @@
         <v>26588</v>
       </c>
       <c r="B133" t="n">
-        <v>132181</v>
+        <v>162967</v>
       </c>
       <c r="C133" t="s">
         <v>1185</v>
@@ -16649,7 +16649,7 @@
         <v>26588</v>
       </c>
       <c r="B134" t="n">
-        <v>132182</v>
+        <v>162968</v>
       </c>
       <c r="C134" t="s">
         <v>1192</v>
@@ -16791,7 +16791,7 @@
         <v>26588</v>
       </c>
       <c r="B136" t="n">
-        <v>132183</v>
+        <v>162969</v>
       </c>
       <c r="C136" t="s">
         <v>1206</v>
@@ -16856,7 +16856,7 @@
         <v>26588</v>
       </c>
       <c r="B137" t="n">
-        <v>132184</v>
+        <v>162970</v>
       </c>
       <c r="C137" t="s">
         <v>1216</v>
@@ -16990,7 +16990,7 @@
         <v>26588</v>
       </c>
       <c r="B139" t="n">
-        <v>132185</v>
+        <v>162971</v>
       </c>
       <c r="C139" t="s">
         <v>1236</v>
@@ -17266,7 +17266,7 @@
         <v>26588</v>
       </c>
       <c r="B143" t="n">
-        <v>132186</v>
+        <v>162972</v>
       </c>
       <c r="C143" t="s">
         <v>1275</v>
@@ -17337,7 +17337,7 @@
         <v>26588</v>
       </c>
       <c r="B144" t="n">
-        <v>132187</v>
+        <v>162973</v>
       </c>
       <c r="C144" t="s">
         <v>1285</v>
@@ -17406,7 +17406,7 @@
         <v>26588</v>
       </c>
       <c r="B145" t="n">
-        <v>132188</v>
+        <v>162974</v>
       </c>
       <c r="C145" t="s">
         <v>1295</v>
@@ -17475,7 +17475,7 @@
         <v>26588</v>
       </c>
       <c r="B146" t="n">
-        <v>132189</v>
+        <v>162975</v>
       </c>
       <c r="C146" t="s">
         <v>1302</v>
@@ -17540,7 +17540,7 @@
         <v>26588</v>
       </c>
       <c r="B147" t="n">
-        <v>132190</v>
+        <v>162976</v>
       </c>
       <c r="C147" t="s">
         <v>1311</v>
@@ -17670,7 +17670,7 @@
         <v>26588</v>
       </c>
       <c r="B149" t="n">
-        <v>132191</v>
+        <v>162977</v>
       </c>
       <c r="C149" t="s">
         <v>1329</v>
@@ -17741,7 +17741,7 @@
         <v>26588</v>
       </c>
       <c r="B150" t="n">
-        <v>132192</v>
+        <v>162978</v>
       </c>
       <c r="C150" t="s">
         <v>1339</v>
@@ -17812,7 +17812,7 @@
         <v>26588</v>
       </c>
       <c r="B151" t="n">
-        <v>132193</v>
+        <v>162979</v>
       </c>
       <c r="C151" t="s">
         <v>1348</v>
@@ -17883,7 +17883,7 @@
         <v>26588</v>
       </c>
       <c r="B152" t="n">
-        <v>132194</v>
+        <v>162980</v>
       </c>
       <c r="C152" t="s">
         <v>1357</v>
@@ -17948,7 +17948,7 @@
         <v>26588</v>
       </c>
       <c r="B153" t="n">
-        <v>132195</v>
+        <v>162981</v>
       </c>
       <c r="C153" t="s">
         <v>1364</v>
@@ -18017,7 +18017,7 @@
         <v>26588</v>
       </c>
       <c r="B154" t="n">
-        <v>132196</v>
+        <v>162982</v>
       </c>
       <c r="C154" t="s">
         <v>1374</v>
@@ -18088,7 +18088,7 @@
         <v>26588</v>
       </c>
       <c r="B155" t="n">
-        <v>132197</v>
+        <v>162983</v>
       </c>
       <c r="C155" t="s">
         <v>1383</v>
@@ -18159,7 +18159,7 @@
         <v>26588</v>
       </c>
       <c r="B156" t="n">
-        <v>132198</v>
+        <v>162984</v>
       </c>
       <c r="C156" t="s">
         <v>1392</v>
@@ -18230,7 +18230,7 @@
         <v>26588</v>
       </c>
       <c r="B157" t="n">
-        <v>132199</v>
+        <v>162985</v>
       </c>
       <c r="C157" t="s">
         <v>1399</v>
@@ -18299,7 +18299,7 @@
         <v>26588</v>
       </c>
       <c r="B158" t="n">
-        <v>132200</v>
+        <v>162986</v>
       </c>
       <c r="C158" t="s">
         <v>1408</v>
@@ -18370,7 +18370,7 @@
         <v>26588</v>
       </c>
       <c r="B159" t="n">
-        <v>132201</v>
+        <v>162987</v>
       </c>
       <c r="C159" t="s">
         <v>1417</v>
@@ -18435,7 +18435,7 @@
         <v>26588</v>
       </c>
       <c r="B160" t="n">
-        <v>132202</v>
+        <v>162988</v>
       </c>
       <c r="C160" t="s">
         <v>1426</v>
@@ -18504,7 +18504,7 @@
         <v>26588</v>
       </c>
       <c r="B161" t="n">
-        <v>132203</v>
+        <v>162989</v>
       </c>
       <c r="C161" t="s">
         <v>1435</v>
@@ -18569,7 +18569,7 @@
         <v>26588</v>
       </c>
       <c r="B162" t="n">
-        <v>132204</v>
+        <v>162990</v>
       </c>
       <c r="C162" t="s">
         <v>1444</v>
@@ -18640,7 +18640,7 @@
         <v>26588</v>
       </c>
       <c r="B163" t="n">
-        <v>132205</v>
+        <v>162991</v>
       </c>
       <c r="C163" t="s">
         <v>1454</v>
@@ -18782,7 +18782,7 @@
         <v>26588</v>
       </c>
       <c r="B165" t="n">
-        <v>132206</v>
+        <v>162992</v>
       </c>
       <c r="C165" t="s">
         <v>1473</v>
@@ -18918,7 +18918,7 @@
         <v>26588</v>
       </c>
       <c r="B167" t="n">
-        <v>132207</v>
+        <v>162993</v>
       </c>
       <c r="C167" t="s">
         <v>1492</v>
@@ -19200,7 +19200,7 @@
         <v>26588</v>
       </c>
       <c r="B171" t="n">
-        <v>132208</v>
+        <v>162994</v>
       </c>
       <c r="C171" t="s">
         <v>1524</v>
@@ -19269,7 +19269,7 @@
         <v>26588</v>
       </c>
       <c r="B172" t="n">
-        <v>132209</v>
+        <v>162995</v>
       </c>
       <c r="C172" t="s">
         <v>1533</v>
@@ -19338,7 +19338,7 @@
         <v>26588</v>
       </c>
       <c r="B173" t="n">
-        <v>132210</v>
+        <v>162996</v>
       </c>
       <c r="C173" t="s">
         <v>1540</v>
@@ -19409,7 +19409,7 @@
         <v>26588</v>
       </c>
       <c r="B174" t="n">
-        <v>132211</v>
+        <v>162997</v>
       </c>
       <c r="C174" t="s">
         <v>1548</v>
@@ -19480,7 +19480,7 @@
         <v>26588</v>
       </c>
       <c r="B175" t="n">
-        <v>132212</v>
+        <v>162998</v>
       </c>
       <c r="C175" t="s">
         <v>1557</v>
@@ -19620,7 +19620,7 @@
         <v>26588</v>
       </c>
       <c r="B177" t="n">
-        <v>132213</v>
+        <v>162999</v>
       </c>
       <c r="C177" t="s">
         <v>1576</v>
@@ -19687,7 +19687,7 @@
         <v>26588</v>
       </c>
       <c r="B178" t="n">
-        <v>132214</v>
+        <v>163000</v>
       </c>
       <c r="C178" t="s">
         <v>1583</v>
@@ -19758,7 +19758,7 @@
         <v>26588</v>
       </c>
       <c r="B179" t="n">
-        <v>132215</v>
+        <v>163001</v>
       </c>
       <c r="C179" t="s">
         <v>1592</v>
@@ -19977,7 +19977,7 @@
         <v>26588</v>
       </c>
       <c r="B182" t="n">
-        <v>132216</v>
+        <v>163002</v>
       </c>
       <c r="C182" t="s">
         <v>1617</v>
@@ -20127,7 +20127,7 @@
         <v>26588</v>
       </c>
       <c r="B184" t="n">
-        <v>132217</v>
+        <v>163003</v>
       </c>
       <c r="C184" t="s">
         <v>1636</v>
@@ -20192,7 +20192,7 @@
         <v>26588</v>
       </c>
       <c r="B185" t="n">
-        <v>132218</v>
+        <v>163004</v>
       </c>
       <c r="C185" t="s">
         <v>1646</v>
@@ -20267,7 +20267,7 @@
         <v>26588</v>
       </c>
       <c r="B186" t="n">
-        <v>132172</v>
+        <v>132130</v>
       </c>
       <c r="C186" t="s">
         <v>1059</v>
@@ -20342,7 +20342,7 @@
         <v>26588</v>
       </c>
       <c r="B187" t="n">
-        <v>132219</v>
+        <v>163005</v>
       </c>
       <c r="C187" t="s">
         <v>1662</v>
@@ -20417,7 +20417,7 @@
         <v>26588</v>
       </c>
       <c r="B188" t="n">
-        <v>132220</v>
+        <v>163006</v>
       </c>
       <c r="C188" t="s">
         <v>1669</v>
@@ -20482,7 +20482,7 @@
         <v>26588</v>
       </c>
       <c r="B189" t="n">
-        <v>132221</v>
+        <v>163007</v>
       </c>
       <c r="C189" t="s">
         <v>1679</v>
@@ -20557,7 +20557,7 @@
         <v>26588</v>
       </c>
       <c r="B190" t="n">
-        <v>132222</v>
+        <v>163008</v>
       </c>
       <c r="C190" t="s">
         <v>1686</v>
@@ -20632,7 +20632,7 @@
         <v>26588</v>
       </c>
       <c r="B191" t="n">
-        <v>132223</v>
+        <v>163009</v>
       </c>
       <c r="C191" t="s">
         <v>1695</v>
@@ -20857,7 +20857,7 @@
         <v>26588</v>
       </c>
       <c r="B194" t="n">
-        <v>132224</v>
+        <v>163010</v>
       </c>
       <c r="C194" t="s">
         <v>1723</v>
@@ -21078,7 +21078,7 @@
         <v>26588</v>
       </c>
       <c r="B197" t="n">
-        <v>132225</v>
+        <v>163011</v>
       </c>
       <c r="C197" t="s">
         <v>1749</v>
@@ -21228,7 +21228,7 @@
         <v>26588</v>
       </c>
       <c r="B199" t="n">
-        <v>132226</v>
+        <v>163012</v>
       </c>
       <c r="C199" t="s">
         <v>1767</v>
@@ -21443,7 +21443,7 @@
         <v>26588</v>
       </c>
       <c r="B202" t="n">
-        <v>132227</v>
+        <v>163013</v>
       </c>
       <c r="C202" t="s">
         <v>1793</v>
@@ -21518,7 +21518,7 @@
         <v>26588</v>
       </c>
       <c r="B203" t="n">
-        <v>132228</v>
+        <v>163014</v>
       </c>
       <c r="C203" t="s">
         <v>1799</v>
@@ -21591,7 +21591,7 @@
         <v>26588</v>
       </c>
       <c r="B204" t="n">
-        <v>132229</v>
+        <v>163015</v>
       </c>
       <c r="C204" t="s">
         <v>1808</v>
@@ -21666,7 +21666,7 @@
         <v>26588</v>
       </c>
       <c r="B205" t="n">
-        <v>132230</v>
+        <v>163016</v>
       </c>
       <c r="C205" t="s">
         <v>1817</v>
@@ -21741,7 +21741,7 @@
         <v>26588</v>
       </c>
       <c r="B206" t="n">
-        <v>132231</v>
+        <v>163017</v>
       </c>
       <c r="C206" t="s">
         <v>1826</v>
@@ -21812,7 +21812,7 @@
         <v>26588</v>
       </c>
       <c r="B207" t="n">
-        <v>132232</v>
+        <v>163018</v>
       </c>
       <c r="C207" t="s">
         <v>1835</v>
@@ -21887,7 +21887,7 @@
         <v>26588</v>
       </c>
       <c r="B208" t="n">
-        <v>132233</v>
+        <v>163019</v>
       </c>
       <c r="C208" t="s">
         <v>1844</v>
@@ -21960,7 +21960,7 @@
         <v>26588</v>
       </c>
       <c r="B209" t="n">
-        <v>132234</v>
+        <v>163020</v>
       </c>
       <c r="C209" t="s">
         <v>1851</v>
@@ -22031,7 +22031,7 @@
         <v>26588</v>
       </c>
       <c r="B210" t="n">
-        <v>132235</v>
+        <v>163021</v>
       </c>
       <c r="C210" t="s">
         <v>1860</v>
@@ -22106,7 +22106,7 @@
         <v>26588</v>
       </c>
       <c r="B211" t="n">
-        <v>132236</v>
+        <v>163022</v>
       </c>
       <c r="C211" t="s">
         <v>1870</v>
@@ -22181,7 +22181,7 @@
         <v>26588</v>
       </c>
       <c r="B212" t="n">
-        <v>132237</v>
+        <v>163023</v>
       </c>
       <c r="C212" t="s">
         <v>1879</v>
@@ -22256,7 +22256,7 @@
         <v>26588</v>
       </c>
       <c r="B213" t="n">
-        <v>132238</v>
+        <v>163024</v>
       </c>
       <c r="C213" t="s">
         <v>1889</v>
@@ -22481,7 +22481,7 @@
         <v>26588</v>
       </c>
       <c r="B216" t="n">
-        <v>132239</v>
+        <v>163025</v>
       </c>
       <c r="C216" t="s">
         <v>1917</v>
@@ -22631,7 +22631,7 @@
         <v>26588</v>
       </c>
       <c r="B218" t="n">
-        <v>132240</v>
+        <v>163026</v>
       </c>
       <c r="C218" t="s">
         <v>1932</v>
@@ -22706,7 +22706,7 @@
         <v>26588</v>
       </c>
       <c r="B219" t="n">
-        <v>132241</v>
+        <v>163027</v>
       </c>
       <c r="C219" t="s">
         <v>1942</v>
@@ -22852,7 +22852,7 @@
         <v>26588</v>
       </c>
       <c r="B221" t="n">
-        <v>132242</v>
+        <v>163028</v>
       </c>
       <c r="C221" t="s">
         <v>1955</v>
@@ -22927,7 +22927,7 @@
         <v>26588</v>
       </c>
       <c r="B222" t="n">
-        <v>132243</v>
+        <v>163029</v>
       </c>
       <c r="C222" t="s">
         <v>1963</v>
@@ -23002,7 +23002,7 @@
         <v>26588</v>
       </c>
       <c r="B223" t="n">
-        <v>132244</v>
+        <v>163030</v>
       </c>
       <c r="C223" t="s">
         <v>1973</v>
@@ -23077,7 +23077,7 @@
         <v>26588</v>
       </c>
       <c r="B224" t="n">
-        <v>132245</v>
+        <v>163031</v>
       </c>
       <c r="C224" t="s">
         <v>1983</v>
@@ -23227,7 +23227,7 @@
         <v>26588</v>
       </c>
       <c r="B226" t="n">
-        <v>132246</v>
+        <v>163032</v>
       </c>
       <c r="C226" t="s">
         <v>1999</v>
@@ -23377,7 +23377,7 @@
         <v>26588</v>
       </c>
       <c r="B228" t="n">
-        <v>132247</v>
+        <v>163033</v>
       </c>
       <c r="C228" t="s">
         <v>2012</v>
@@ -23673,7 +23673,7 @@
         <v>26588</v>
       </c>
       <c r="B232" t="n">
-        <v>132248</v>
+        <v>163034</v>
       </c>
       <c r="C232" t="s">
         <v>2041</v>
@@ -23823,7 +23823,7 @@
         <v>26588</v>
       </c>
       <c r="B234" t="n">
-        <v>132249</v>
+        <v>163035</v>
       </c>
       <c r="C234" t="s">
         <v>2059</v>
@@ -23969,7 +23969,7 @@
         <v>26588</v>
       </c>
       <c r="B236" t="n">
-        <v>132250</v>
+        <v>163036</v>
       </c>
       <c r="C236" t="s">
         <v>2075</v>
@@ -24184,7 +24184,7 @@
         <v>26588</v>
       </c>
       <c r="B239" t="n">
-        <v>132251</v>
+        <v>163037</v>
       </c>
       <c r="C239" t="s">
         <v>2100</v>
@@ -24334,7 +24334,7 @@
         <v>26588</v>
       </c>
       <c r="B241" t="n">
-        <v>132252</v>
+        <v>163038</v>
       </c>
       <c r="C241" t="s">
         <v>2117</v>
@@ -24480,7 +24480,7 @@
         <v>26588</v>
       </c>
       <c r="B243" t="n">
-        <v>132253</v>
+        <v>163039</v>
       </c>
       <c r="C243" t="s">
         <v>2131</v>
@@ -24622,7 +24622,7 @@
         <v>26588</v>
       </c>
       <c r="B245" t="n">
-        <v>132254</v>
+        <v>163040</v>
       </c>
       <c r="C245" t="s">
         <v>2146</v>
@@ -24693,7 +24693,7 @@
         <v>26588</v>
       </c>
       <c r="B246" t="n">
-        <v>132255</v>
+        <v>163041</v>
       </c>
       <c r="C246" t="s">
         <v>2154</v>
@@ -24764,7 +24764,7 @@
         <v>26588</v>
       </c>
       <c r="B247" t="n">
-        <v>132256</v>
+        <v>163042</v>
       </c>
       <c r="C247" t="s">
         <v>2164</v>
@@ -24835,7 +24835,7 @@
         <v>26588</v>
       </c>
       <c r="B248" t="n">
-        <v>132257</v>
+        <v>163043</v>
       </c>
       <c r="C248" t="s">
         <v>2173</v>
@@ -24910,7 +24910,7 @@
         <v>26588</v>
       </c>
       <c r="B249" t="n">
-        <v>132258</v>
+        <v>163044</v>
       </c>
       <c r="C249" t="s">
         <v>2182</v>
@@ -24981,7 +24981,7 @@
         <v>26588</v>
       </c>
       <c r="B250" t="n">
-        <v>132259</v>
+        <v>163045</v>
       </c>
       <c r="C250" t="s">
         <v>2191</v>
@@ -25056,7 +25056,7 @@
         <v>26588</v>
       </c>
       <c r="B251" t="n">
-        <v>132260</v>
+        <v>163046</v>
       </c>
       <c r="C251" t="s">
         <v>2200</v>
@@ -25127,7 +25127,7 @@
         <v>26588</v>
       </c>
       <c r="B252" t="n">
-        <v>132261</v>
+        <v>163047</v>
       </c>
       <c r="C252" t="s">
         <v>2208</v>
@@ -25202,7 +25202,7 @@
         <v>26588</v>
       </c>
       <c r="B253" t="n">
-        <v>132262</v>
+        <v>163048</v>
       </c>
       <c r="C253" t="s">
         <v>2218</v>
@@ -25275,7 +25275,7 @@
         <v>26588</v>
       </c>
       <c r="B254" t="n">
-        <v>132263</v>
+        <v>163049</v>
       </c>
       <c r="C254" t="s">
         <v>2226</v>
@@ -25346,7 +25346,7 @@
         <v>26588</v>
       </c>
       <c r="B255" t="n">
-        <v>132264</v>
+        <v>163050</v>
       </c>
       <c r="C255" t="s">
         <v>2234</v>
@@ -25417,7 +25417,7 @@
         <v>26588</v>
       </c>
       <c r="B256" t="n">
-        <v>132265</v>
+        <v>163051</v>
       </c>
       <c r="C256" t="s">
         <v>2241</v>
@@ -25559,7 +25559,7 @@
         <v>26588</v>
       </c>
       <c r="B258" t="n">
-        <v>132266</v>
+        <v>163052</v>
       </c>
       <c r="C258" t="s">
         <v>2254</v>
@@ -25630,7 +25630,7 @@
         <v>26588</v>
       </c>
       <c r="B259" t="n">
-        <v>132267</v>
+        <v>163053</v>
       </c>
       <c r="C259" t="s">
         <v>2262</v>
@@ -25705,7 +25705,7 @@
         <v>26588</v>
       </c>
       <c r="B260" t="n">
-        <v>132268</v>
+        <v>163054</v>
       </c>
       <c r="C260" t="s">
         <v>2272</v>
@@ -25776,7 +25776,7 @@
         <v>26588</v>
       </c>
       <c r="B261" t="n">
-        <v>132269</v>
+        <v>163055</v>
       </c>
       <c r="C261" t="s">
         <v>2280</v>
@@ -25851,7 +25851,7 @@
         <v>26588</v>
       </c>
       <c r="B262" t="n">
-        <v>132270</v>
+        <v>163056</v>
       </c>
       <c r="C262" t="s">
         <v>2290</v>
@@ -25922,7 +25922,7 @@
         <v>26588</v>
       </c>
       <c r="B263" t="n">
-        <v>132271</v>
+        <v>163057</v>
       </c>
       <c r="C263" t="s">
         <v>2298</v>
@@ -26060,7 +26060,7 @@
         <v>26588</v>
       </c>
       <c r="B265" t="n">
-        <v>132272</v>
+        <v>163058</v>
       </c>
       <c r="C265" t="s">
         <v>2311</v>
@@ -26117,7 +26117,7 @@
         <v>26588</v>
       </c>
       <c r="B266" t="n">
-        <v>132273</v>
+        <v>163059</v>
       </c>
       <c r="C266" t="s">
         <v>2317</v>
@@ -26188,7 +26188,7 @@
         <v>26588</v>
       </c>
       <c r="B267" t="n">
-        <v>132274</v>
+        <v>163060</v>
       </c>
       <c r="C267" t="s">
         <v>2325</v>
@@ -26263,7 +26263,7 @@
         <v>26588</v>
       </c>
       <c r="B268" t="n">
-        <v>132275</v>
+        <v>163061</v>
       </c>
       <c r="C268" t="s">
         <v>2334</v>
@@ -26332,7 +26332,7 @@
         <v>26588</v>
       </c>
       <c r="B269" t="n">
-        <v>132276</v>
+        <v>163062</v>
       </c>
       <c r="C269" t="s">
         <v>2341</v>
@@ -26397,7 +26397,7 @@
         <v>26588</v>
       </c>
       <c r="B270" t="n">
-        <v>132277</v>
+        <v>163063</v>
       </c>
       <c r="C270" t="s">
         <v>2347</v>
@@ -26466,7 +26466,7 @@
         <v>26588</v>
       </c>
       <c r="B271" t="n">
-        <v>132278</v>
+        <v>163064</v>
       </c>
       <c r="C271" t="s">
         <v>2354</v>
